--- a/AAII_Financials/Yearly/ERKH_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ERKH_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="92">
   <si>
     <t>ERKH</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,34 +665,34 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="G7" s="2" t="s">
         <v>3</v>
       </c>
@@ -705,21 +705,24 @@
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E8" s="3">
         <v>3700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3300</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G8" s="3" t="s">
         <v>3</v>
       </c>
@@ -732,9 +735,12 @@
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -759,9 +765,12 @@
       <c r="J9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -786,9 +795,12 @@
       <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -800,8 +812,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -826,9 +839,12 @@
       <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -853,9 +869,12 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -880,9 +899,12 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -907,9 +929,12 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -918,20 +943,21 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E17" s="3">
         <v>1600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1300</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G17" s="3" t="s">
         <v>3</v>
       </c>
@@ -944,21 +970,24 @@
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E18" s="3">
         <v>2100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2000</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
       </c>
@@ -971,9 +1000,12 @@
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -985,20 +1017,21 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1700</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1011,21 +1044,24 @@
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>300</v>
+      </c>
+      <c r="E21" s="3">
         <v>400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>300</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1038,9 +1074,12 @@
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1065,21 +1104,24 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>200</v>
+      </c>
+      <c r="E23" s="3">
         <v>300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>200</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1092,20 +1134,23 @@
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>3</v>
+      <c r="F24" s="3">
+        <v>100</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>3</v>
@@ -1119,9 +1164,12 @@
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1146,21 +1194,24 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E26" s="3">
         <v>300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>200</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1173,21 +1224,24 @@
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E27" s="3">
         <v>300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>200</v>
       </c>
-      <c r="F27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1200,9 +1254,12 @@
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1227,21 +1284,24 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
         <v>-200</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G29" s="3" t="s">
         <v>3</v>
       </c>
@@ -1254,9 +1314,12 @@
       <c r="J29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1281,9 +1344,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1308,21 +1374,24 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E32" s="3">
         <v>1800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1700</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1335,20 +1404,23 @@
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E33" s="3">
         <v>300</v>
       </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>3</v>
+      <c r="F33" s="3">
+        <v>0</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>3</v>
@@ -1362,9 +1434,12 @@
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1389,20 +1464,23 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E35" s="3">
         <v>300</v>
       </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>3</v>
+      <c r="F35" s="3">
+        <v>0</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>3</v>
@@ -1416,26 +1494,29 @@
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="G38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1448,9 +1529,12 @@
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1462,8 +1546,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1475,20 +1560,21 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E41" s="3">
         <v>3100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>700</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1501,21 +1587,24 @@
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E42" s="3">
         <v>2100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>2300</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1528,9 +1617,12 @@
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1555,9 +1647,12 @@
       <c r="J43" s="3">
         <v>0</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1582,9 +1677,12 @@
       <c r="J44" s="3">
         <v>0</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1609,9 +1707,12 @@
       <c r="J45" s="3">
         <v>0</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1636,9 +1737,12 @@
       <c r="J46" s="3">
         <v>0</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1663,20 +1767,23 @@
       <c r="J47" s="3">
         <v>0</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="E48" s="3">
         <v>800</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
+      <c r="F48" s="3">
+        <v>800</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
@@ -1690,9 +1797,12 @@
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1717,9 +1827,12 @@
       <c r="J49" s="3">
         <v>0</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K49" s="3">
+        <v>0</v>
+      </c>
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1744,9 +1857,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1771,20 +1887,23 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E52" s="3">
         <v>300</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
+      <c r="F52" s="3">
+        <v>300</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
@@ -1798,9 +1917,12 @@
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1825,21 +1947,24 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>106000</v>
+      </c>
+      <c r="E54" s="3">
         <v>98100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>94600</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1852,9 +1977,12 @@
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1866,8 +1994,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1879,8 +2008,9 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1905,9 +2035,12 @@
       <c r="J57" s="3">
         <v>0</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K57" s="3">
+        <v>0</v>
+      </c>
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -1932,21 +2065,24 @@
       <c r="J58" s="3">
         <v>0</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>700</v>
+      </c>
+      <c r="E59" s="3">
         <v>2200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2300</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
       </c>
@@ -1959,9 +2095,12 @@
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -1986,9 +2125,12 @@
       <c r="J60" s="3">
         <v>0</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K60" s="3">
+        <v>0</v>
+      </c>
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2013,9 +2155,12 @@
       <c r="J61" s="3">
         <v>0</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2040,9 +2185,12 @@
       <c r="J62" s="3">
         <v>0</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2067,9 +2215,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2094,9 +2245,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2121,21 +2275,24 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>81700</v>
+      </c>
+      <c r="E66" s="3">
         <v>85800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>82700</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2148,9 +2305,12 @@
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2162,8 +2322,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2188,9 +2349,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2215,9 +2379,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2242,9 +2409,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2269,9 +2439,12 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -2279,11 +2452,11 @@
         <v>12300</v>
       </c>
       <c r="E72" s="3">
+        <v>12300</v>
+      </c>
+      <c r="F72" s="3">
         <v>12000</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2296,9 +2469,12 @@
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2323,9 +2499,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2350,9 +2529,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2377,21 +2559,24 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>24300</v>
+      </c>
+      <c r="E76" s="3">
         <v>12200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>11900</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2404,9 +2589,12 @@
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2431,26 +2619,29 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="G80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2463,20 +2654,23 @@
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E81" s="3">
         <v>300</v>
       </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>3</v>
+      <c r="F81" s="3">
+        <v>0</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>3</v>
@@ -2490,9 +2684,12 @@
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2504,19 +2701,20 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
+      <c r="F83" s="3">
+        <v>0</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
@@ -2530,9 +2728,12 @@
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2557,9 +2758,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2584,9 +2788,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2611,9 +2818,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2638,9 +2848,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2665,20 +2878,23 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E89" s="3">
         <v>300</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>3</v>
+      <c r="F89" s="3">
+        <v>0</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
@@ -2692,9 +2908,12 @@
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2706,19 +2925,20 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
@@ -2732,9 +2952,12 @@
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2759,9 +2982,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2786,21 +3012,24 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3100</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
       </c>
@@ -2813,9 +3042,12 @@
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2827,8 +3059,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -2853,9 +3086,12 @@
       <c r="J96" s="3">
         <v>0</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2880,9 +3116,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2907,9 +3146,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2934,21 +3176,24 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E100" s="3">
         <v>3200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2200</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
       </c>
@@ -2961,9 +3206,12 @@
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -2988,21 +3236,24 @@
       <c r="J101" s="3">
         <v>0</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E102" s="3">
         <v>2400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-900</v>
       </c>
-      <c r="F102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3015,7 +3266,10 @@
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/ERKH_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ERKH_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="92">
   <si>
     <t>ERKH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,37 +665,37 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H7" s="2" t="s">
         <v>3</v>
       </c>
@@ -708,24 +708,27 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="3">
         <v>3800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3300</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
       </c>
@@ -738,9 +741,12 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -768,9 +774,12 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -798,9 +807,12 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,8 +825,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -842,9 +855,12 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -872,9 +888,12 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -902,9 +921,12 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -932,9 +954,12 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -944,23 +969,24 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="3">
         <v>1900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1300</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
       </c>
@@ -973,24 +999,27 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="3">
         <v>1900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2000</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1003,9 +1032,12 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1018,23 +1050,24 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1700</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1047,21 +1080,24 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>300</v>
+      <c r="D21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>200</v>
+      </c>
+      <c r="F21" s="3">
         <v>400</v>
       </c>
-      <c r="F21" s="3">
-        <v>300</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1077,9 +1113,12 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1107,24 +1146,27 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E23" s="3">
         <v>200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>200</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1137,23 +1179,26 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E24" s="3">
         <v>300</v>
-      </c>
-      <c r="E24" s="3">
-        <v>100</v>
       </c>
       <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
+      <c r="G24" s="3">
+        <v>100</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
@@ -1167,9 +1212,12 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1197,24 +1245,27 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
         <v>-100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>200</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1227,24 +1278,27 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3">
         <v>-100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>200</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1257,9 +1311,12 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1287,24 +1344,27 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>-200</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H29" s="3" t="s">
         <v>3</v>
       </c>
@@ -1317,9 +1377,12 @@
       <c r="K29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1347,9 +1410,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1377,24 +1443,27 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="3">
         <v>1700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1700</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1407,23 +1476,26 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3">
         <v>-100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>300</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
+      <c r="G33" s="3">
+        <v>0</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1437,9 +1509,12 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1467,23 +1542,26 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="3">
         <v>-100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>300</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
+      <c r="G35" s="3">
+        <v>0</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1497,29 +1575,32 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1532,9 +1613,12 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1547,8 +1631,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1561,23 +1646,24 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E41" s="3">
         <v>11900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>700</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1590,24 +1676,27 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E42" s="3">
         <v>3200</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>2100</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>2300</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1620,9 +1709,12 @@
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1650,9 +1742,12 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1680,9 +1775,12 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1710,9 +1808,12 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1740,9 +1841,12 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1770,9 +1874,12 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1780,13 +1887,13 @@
         <v>700</v>
       </c>
       <c r="E48" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="F48" s="3">
         <v>800</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
+      <c r="G48" s="3">
+        <v>800</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1800,9 +1907,12 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1830,9 +1940,12 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1860,9 +1973,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1890,23 +2006,26 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>0</v>
+      <c r="D52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E52" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="F52" s="3">
         <v>300</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
+      <c r="G52" s="3">
+        <v>300</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -1920,9 +2039,12 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1950,24 +2072,27 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>99900</v>
+      </c>
+      <c r="E54" s="3">
         <v>106000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>98100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>94600</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1980,9 +2105,12 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1995,8 +2123,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2009,8 +2138,9 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2038,9 +2168,12 @@
       <c r="K57" s="3">
         <v>0</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2068,24 +2201,27 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>800</v>
+      </c>
+      <c r="E59" s="3">
         <v>700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2300</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2098,9 +2234,12 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2128,9 +2267,12 @@
       <c r="K60" s="3">
         <v>0</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2158,39 +2300,45 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
         <v>0</v>
       </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+      <c r="E62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2218,9 +2366,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2248,9 +2399,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2278,24 +2432,27 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>78000</v>
+      </c>
+      <c r="E66" s="3">
         <v>81700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>85800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>82700</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2308,9 +2465,12 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2323,8 +2483,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2352,9 +2513,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2382,9 +2546,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2412,9 +2579,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2442,24 +2612,27 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>12300</v>
+        <v>12200</v>
       </c>
       <c r="E72" s="3">
         <v>12300</v>
       </c>
       <c r="F72" s="3">
+        <v>12300</v>
+      </c>
+      <c r="G72" s="3">
         <v>12000</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2472,9 +2645,12 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2502,9 +2678,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2532,9 +2711,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2562,24 +2744,27 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>21900</v>
+      </c>
+      <c r="E76" s="3">
         <v>24300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>12200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>11900</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2592,9 +2777,12 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2622,29 +2810,32 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2657,23 +2848,26 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="3">
         <v>-100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>300</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
+      <c r="G81" s="3">
+        <v>0</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2687,9 +2881,12 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2702,8 +2899,9 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2711,13 +2909,13 @@
         <v>100</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F83" s="3">
         <v>0</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
+      <c r="G83" s="3">
+        <v>0</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
@@ -2731,9 +2929,12 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2761,9 +2962,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2791,9 +2995,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2821,9 +3028,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2851,9 +3061,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2881,23 +3094,26 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>300</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
+      <c r="G89" s="3">
+        <v>0</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -2911,9 +3127,12 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2926,8 +3145,9 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2935,13 +3155,13 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
+      <c r="G91" s="3">
+        <v>0</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -2955,9 +3175,12 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2985,9 +3208,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3015,24 +3241,27 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>500</v>
+      </c>
+      <c r="E94" s="3">
         <v>1800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3100</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3045,9 +3274,12 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3060,8 +3292,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3089,9 +3322,12 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3119,9 +3355,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3149,9 +3388,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3179,24 +3421,27 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="E100" s="3">
         <v>9300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>3200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>2200</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3209,9 +3454,12 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3239,24 +3487,27 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="E102" s="3">
         <v>8800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>2400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-900</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3269,7 +3520,10 @@
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/ERKH_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ERKH_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="92">
   <si>
     <t>ERKH</t>
   </si>
@@ -717,8 +717,8 @@
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>3</v>
+      <c r="D8" s="3">
+        <v>3000</v>
       </c>
       <c r="E8" s="3">
         <v>3800</v>
@@ -975,8 +975,8 @@
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>3</v>
+      <c r="D17" s="3">
+        <v>1600</v>
       </c>
       <c r="E17" s="3">
         <v>1900</v>
@@ -1008,8 +1008,8 @@
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
+      <c r="D18" s="3">
+        <v>1400</v>
       </c>
       <c r="E18" s="3">
         <v>1900</v>
@@ -1056,8 +1056,8 @@
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
+      <c r="D20" s="3">
+        <v>-1600</v>
       </c>
       <c r="E20" s="3">
         <v>-1700</v>
@@ -1089,17 +1089,17 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>-100</v>
       </c>
       <c r="E21" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F21" s="3">
         <v>400</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
+      <c r="G21" s="3">
+        <v>300</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1254,8 +1254,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>-100</v>
       </c>
       <c r="E26" s="3">
         <v>-100</v>
@@ -1287,8 +1287,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>-100</v>
       </c>
       <c r="E27" s="3">
         <v>-100</v>
@@ -1452,8 +1452,8 @@
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
+      <c r="D32" s="3">
+        <v>1600</v>
       </c>
       <c r="E32" s="3">
         <v>1700</v>
@@ -1485,8 +1485,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>-100</v>
       </c>
       <c r="E33" s="3">
         <v>-100</v>
@@ -1551,8 +1551,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>-100</v>
       </c>
       <c r="E35" s="3">
         <v>-100</v>
@@ -2857,8 +2857,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>-100</v>
       </c>
       <c r="E81" s="3">
         <v>-100</v>

--- a/AAII_Financials/Yearly/ERKH_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ERKH_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="92">
   <si>
     <t>ERKH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,40 +665,40 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
@@ -711,27 +711,30 @@
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E8" s="3">
         <v>3000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3300</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
       </c>
@@ -744,9 +747,12 @@
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -777,9 +783,12 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -810,9 +819,12 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,8 +838,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -858,9 +871,12 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -891,9 +907,12 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -924,9 +943,12 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -957,9 +979,12 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -970,26 +995,27 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E17" s="3">
         <v>1600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1300</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1002,27 +1028,30 @@
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E18" s="3">
         <v>1400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2000</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1035,9 +1064,12 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1051,26 +1083,27 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1700</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1083,27 +1116,30 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>300</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1116,9 +1152,12 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1149,27 +1188,30 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>200</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1182,26 +1224,29 @@
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>-100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>300</v>
-      </c>
-      <c r="F24" s="3">
-        <v>100</v>
       </c>
       <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
+      <c r="H24" s="3">
+        <v>100</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
@@ -1215,9 +1260,12 @@
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1248,27 +1296,30 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="E26" s="3">
         <v>-100</v>
       </c>
       <c r="F26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G26" s="3">
         <v>300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>200</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1281,27 +1332,30 @@
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="E27" s="3">
         <v>-100</v>
       </c>
       <c r="F27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G27" s="3">
         <v>300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>200</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1314,9 +1368,12 @@
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1347,9 +1404,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1359,15 +1419,15 @@
       <c r="E29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>-200</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I29" s="3" t="s">
         <v>3</v>
       </c>
@@ -1380,9 +1440,12 @@
       <c r="L29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1413,9 +1476,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1446,27 +1512,30 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E32" s="3">
         <v>1600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1700</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1479,26 +1548,29 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="E33" s="3">
         <v>-100</v>
       </c>
       <c r="F33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G33" s="3">
         <v>300</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
+      <c r="H33" s="3">
+        <v>0</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1512,9 +1584,12 @@
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1545,26 +1620,29 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="E35" s="3">
         <v>-100</v>
       </c>
       <c r="F35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G35" s="3">
         <v>300</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
+      <c r="H35" s="3">
+        <v>0</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1578,32 +1656,35 @@
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1616,9 +1697,12 @@
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1632,8 +1716,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1647,26 +1732,27 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E41" s="3">
         <v>4000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>11900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>700</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1679,27 +1765,30 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E42" s="3">
         <v>10900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>3200</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>2100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>2300</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1712,9 +1801,12 @@
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1745,9 +1837,12 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1778,9 +1873,12 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1811,9 +1909,12 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1844,9 +1945,12 @@
       <c r="L46" s="3">
         <v>0</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1877,26 +1981,29 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E48" s="3">
         <v>700</v>
       </c>
       <c r="F48" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="G48" s="3">
         <v>800</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
+      <c r="H48" s="3">
+        <v>800</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -1910,9 +2017,12 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1943,9 +2053,12 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1976,9 +2089,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2009,26 +2125,29 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
+      <c r="E52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F52" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G52" s="3">
         <v>300</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
+      <c r="H52" s="3">
+        <v>300</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -2042,9 +2161,12 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2075,27 +2197,30 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>103600</v>
+      </c>
+      <c r="E54" s="3">
         <v>99900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>106000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>98100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>94600</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2108,9 +2233,12 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2124,8 +2252,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2139,8 +2268,9 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2171,9 +2301,12 @@
       <c r="L57" s="3">
         <v>0</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2204,27 +2337,30 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>700</v>
+      </c>
+      <c r="E59" s="3">
         <v>800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2300</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2237,9 +2373,12 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2270,9 +2409,12 @@
       <c r="L60" s="3">
         <v>0</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2303,17 +2445,20 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
         <v>0</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>3</v>
+      <c r="E62" s="3">
+        <v>0</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>3</v>
@@ -2330,15 +2475,18 @@
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2369,9 +2517,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2402,9 +2553,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2435,27 +2589,30 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>81700</v>
+      </c>
+      <c r="E66" s="3">
         <v>78000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>81700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>85800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>82700</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2468,9 +2625,12 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2484,8 +2644,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2516,9 +2677,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2549,9 +2713,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2582,9 +2749,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2615,27 +2785,30 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E72" s="3">
         <v>12200</v>
-      </c>
-      <c r="E72" s="3">
-        <v>12300</v>
       </c>
       <c r="F72" s="3">
         <v>12300</v>
       </c>
       <c r="G72" s="3">
+        <v>12300</v>
+      </c>
+      <c r="H72" s="3">
         <v>12000</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2648,9 +2821,12 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2681,9 +2857,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2714,9 +2893,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2747,27 +2929,30 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>21800</v>
+      </c>
+      <c r="E76" s="3">
         <v>21900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>24300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>12200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>11900</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2780,9 +2965,12 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2813,32 +3001,35 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2851,26 +3042,29 @@
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="E81" s="3">
         <v>-100</v>
       </c>
       <c r="F81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G81" s="3">
         <v>300</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
+      <c r="H81" s="3">
+        <v>0</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -2884,9 +3078,12 @@
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2900,25 +3097,26 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E83" s="3">
         <v>100</v>
       </c>
       <c r="F83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G83" s="3">
         <v>0</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
+      <c r="H83" s="3">
+        <v>0</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
@@ -2932,9 +3130,12 @@
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2965,9 +3166,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2998,9 +3202,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3031,9 +3238,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3064,9 +3274,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3097,26 +3310,29 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>300</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
+      <c r="H89" s="3">
+        <v>0</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3130,9 +3346,12 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3146,8 +3365,9 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3158,13 +3378,13 @@
         <v>0</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
+      <c r="H91" s="3">
+        <v>0</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -3178,9 +3398,12 @@
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3211,9 +3434,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3244,27 +3470,30 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E94" s="3">
         <v>500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>1800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3100</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3277,9 +3506,12 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3293,8 +3525,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3325,9 +3558,12 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3358,9 +3594,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3391,9 +3630,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3424,27 +3666,30 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-6300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>9300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>3200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2200</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3457,9 +3702,12 @@
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3490,27 +3738,30 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-7900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>8800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>2400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-900</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3523,7 +3774,10 @@
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
